--- a/excel_db/sources/Residential Assets_Var.xlsx
+++ b/excel_db/sources/Residential Assets_Var.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/dimitrios_andritsos_cerved_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\excel_db\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D3E121E9-5D69-4731-95B5-DBB7D982C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7F5BB4-78F5-4446-A00A-E0ED9198CBBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAF92D4-0C2C-41AC-8648-4BBE97BF7DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E83FF698-2A51-4DC3-8F48-9570939C591D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E83FF698-2A51-4DC3-8F48-9570939C591D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3928,5 +3928,6 @@
   </sheetData>
   <autoFilter ref="F1:F38" xr:uid="{12F29FD8-E34D-4D4D-B984-F810B5B20F2A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>